--- a/Examples/SCADA_reader/SVI_Definition.xlsx
+++ b/Examples/SCADA_reader/SVI_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\SCADA_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E559D9C-198B-4799-99BE-C479DAD895DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A66E4-EF74-4650-962E-83F2F6C4D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITFC" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1108,12 +1108,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -1121,7 +1121,7 @@
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="2" customFormat="1">
       <c r="A51" s="2">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="2">
         <v>6</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="2" customFormat="1">
       <c r="A53" s="2">
         <v>7</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>7</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>7</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>7</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="2" customFormat="1">
       <c r="A62" s="2">
         <v>8</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>8</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>8</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>8</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>8</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>8</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>8</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>8</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>8</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>8</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="2" customFormat="1">
       <c r="A82" s="2">
         <v>9</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="2" customFormat="1">
       <c r="A83" s="2">
         <v>10</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>10</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>10</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>10</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>10</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>10</v>
       </c>
@@ -2976,12 +2976,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04924C5-A102-4AD2-85B4-C24CF21F5397}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -2994,7 +2994,7 @@
     <col min="15" max="15" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>140</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>147</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>159</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>221</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>222</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" s="3" customFormat="1">
       <c r="A86" s="3" t="s">
         <v>150</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" s="3" customFormat="1">
       <c r="A87" s="3" t="s">
         <v>151</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="3" customFormat="1">
       <c r="A88" s="3" t="s">
         <v>152</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" s="3" customFormat="1">
       <c r="A89" s="3" t="s">
         <v>153</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" s="3" customFormat="1">
       <c r="A90" s="3" t="s">
         <v>154</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" s="3" customFormat="1">
       <c r="A91" s="3" t="s">
         <v>155</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="3" customFormat="1">
       <c r="A92" s="3" t="s">
         <v>156</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="2" customFormat="1">
       <c r="A99" s="2" t="s">
         <v>189</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="2" customFormat="1">
       <c r="A100" s="2" t="s">
         <v>191</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="2" customFormat="1">
       <c r="A101" s="2" t="s">
         <v>192</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="2" customFormat="1">
       <c r="A102" s="2" t="s">
         <v>190</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="2" customFormat="1">
       <c r="A103" s="2" t="s">
         <v>193</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="2" customFormat="1">
       <c r="A104" s="2" t="s">
         <v>195</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="2" customFormat="1">
       <c r="A105" s="2" t="s">
         <v>196</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
         <v>214</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
         <v>224</v>
       </c>
@@ -7933,7 +7933,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
@@ -7946,7 +7946,7 @@
     <col min="12" max="12" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>198</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>198</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>215</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>215</v>
       </c>

--- a/Examples/SCADA_reader/SVI_Definition.xlsx
+++ b/Examples/SCADA_reader/SVI_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1AC4DB-722E-42ED-A448-F42E0C3E4509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54969EBF-07D4-4AF0-9B9A-8433A5B37F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36255" yWindow="1185" windowWidth="15510" windowHeight="6300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="-1725" windowWidth="14400" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITFC" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="165">
   <si>
     <t>InputNumber</t>
   </si>
@@ -88,13 +88,442 @@
   </si>
   <si>
     <t>PortName</t>
+  </si>
+  <si>
+    <t>WT1_scada</t>
+  </si>
+  <si>
+    <t>itfc_scada</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>Timestamp_UTC</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>GeneratorSpeed</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ConverterTorque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NacelleDirection                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PitchAngle                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PitchAngle1                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PitchAngle2                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PitchAngle3                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RotorRpm                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TurbineState                      </t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WindSpeed                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YawError                          </t>
+  </si>
+  <si>
+    <t>ref_signal</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>isConnected</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>WT2_scada</t>
+  </si>
+  <si>
+    <t>WT3_scada</t>
+  </si>
+  <si>
+    <t>WT1_XYZ_vibrations</t>
+  </si>
+  <si>
+    <t>WT2_XYZ_vibrations</t>
+  </si>
+  <si>
+    <t>WT3_XYZ_vibrations</t>
+  </si>
+  <si>
+    <t>met_mast</t>
+  </si>
+  <si>
+    <t>itfc_mm</t>
+  </si>
+  <si>
+    <t>ws_110m</t>
+  </si>
+  <si>
+    <t>ws_60m</t>
+  </si>
+  <si>
+    <t>wd_110m</t>
+  </si>
+  <si>
+    <t>wd_60m</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>wf_loads</t>
+  </si>
+  <si>
+    <t>itfc_loads</t>
+  </si>
+  <si>
+    <t>wt1_blade1_root_edge</t>
+  </si>
+  <si>
+    <t>wt1_blade1_root_flap</t>
+  </si>
+  <si>
+    <t>wt1_blade2_root_edge</t>
+  </si>
+  <si>
+    <t>wt1_blade2_root_flap</t>
+  </si>
+  <si>
+    <t>wt1_blade3_root_edge</t>
+  </si>
+  <si>
+    <t>wt1_blade3_root_flap</t>
+  </si>
+  <si>
+    <t>wt2_blade1_root_edge</t>
+  </si>
+  <si>
+    <t>wt2_blade1_root_flap</t>
+  </si>
+  <si>
+    <t>wt2_blade2_root_edge</t>
+  </si>
+  <si>
+    <t>wt2_blade2_root_flap</t>
+  </si>
+  <si>
+    <t>wt2_blade3_root_edge</t>
+  </si>
+  <si>
+    <t>wt2_blade3_root_flap</t>
+  </si>
+  <si>
+    <t>wt3_blade1_root_edge</t>
+  </si>
+  <si>
+    <t>wt3_blade1_root_flap</t>
+  </si>
+  <si>
+    <t>wt3_blade2_root_edge</t>
+  </si>
+  <si>
+    <t>wt3_blade2_root_flap</t>
+  </si>
+  <si>
+    <t>wt3_blade3_root_edge</t>
+  </si>
+  <si>
+    <t>wt3_blade3_root_flap</t>
+  </si>
+  <si>
+    <t>exchange_data_ctrl</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>exchange_data_loads</t>
+  </si>
+  <si>
+    <t>wt1_blade1_IP</t>
+  </si>
+  <si>
+    <t>wt1_blade2_IP</t>
+  </si>
+  <si>
+    <t>wt1_blade3_IP</t>
+  </si>
+  <si>
+    <t>wt1_blade1_OOP</t>
+  </si>
+  <si>
+    <t>wt1_blade2_OOP</t>
+  </si>
+  <si>
+    <t>wt1_blade3_OOP</t>
+  </si>
+  <si>
+    <t>host_scada</t>
+  </si>
+  <si>
+    <t>inherit</t>
+  </si>
+  <si>
+    <t>[Nm]</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>check_isWFon</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>check_WindInSector</t>
+  </si>
+  <si>
+    <t>check_all</t>
+  </si>
+  <si>
+    <t>ctrl_check_4</t>
+  </si>
+  <si>
+    <t>ctrl_check_5</t>
+  </si>
+  <si>
+    <t>ctrl_check_6</t>
+  </si>
+  <si>
+    <t>ctrl_check_7</t>
+  </si>
+  <si>
+    <t>ctrl_check_8</t>
+  </si>
+  <si>
+    <t>ctrl_check_9</t>
+  </si>
+  <si>
+    <t>ctrl_check_10</t>
+  </si>
+  <si>
+    <t>avg_TI</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>avg_ws_110m</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>avg_ws_60m</t>
+  </si>
+  <si>
+    <t>avg_shearExp</t>
+  </si>
+  <si>
+    <t>avg_wd_110m</t>
+  </si>
+  <si>
+    <t>[deg]</t>
+  </si>
+  <si>
+    <t>avg_inflowState</t>
+  </si>
+  <si>
+    <t>avg_inflow_AppStatus</t>
+  </si>
+  <si>
+    <t>loads_process_AppStatus</t>
+  </si>
+  <si>
+    <t>WF_status_AppStatus</t>
+  </si>
+  <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input_ws_110m</t>
+  </si>
+  <si>
+    <t>mm_ws_110m</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>input_ws_60m</t>
+  </si>
+  <si>
+    <t>mm_ws_60m</t>
+  </si>
+  <si>
+    <t>input_wd_110m</t>
+  </si>
+  <si>
+    <t>mm_wd_110m</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>output_TI</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>output_ws_110m</t>
+  </si>
+  <si>
+    <t>output_ws_60m</t>
+  </si>
+  <si>
+    <t>output_shearExp</t>
+  </si>
+  <si>
+    <t>output_wd_110m</t>
+  </si>
+  <si>
+    <t>inflowState</t>
+  </si>
+  <si>
+    <t>output_InflowOK</t>
+  </si>
+  <si>
+    <t>AppStatus</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
+    <t>b1_flap</t>
+  </si>
+  <si>
+    <t>b1_edge</t>
+  </si>
+  <si>
+    <t>b1_pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT3_PitchAngle1                       </t>
+  </si>
+  <si>
+    <t>b2_flap</t>
+  </si>
+  <si>
+    <t>b2_edge</t>
+  </si>
+  <si>
+    <t>b2_pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT3_PitchAngle2                       </t>
+  </si>
+  <si>
+    <t>b3_flap</t>
+  </si>
+  <si>
+    <t>b3_edge</t>
+  </si>
+  <si>
+    <t>b3_pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT3_PitchAngle3                       </t>
+  </si>
+  <si>
+    <t>b1_oop</t>
+  </si>
+  <si>
+    <t>b1_ip</t>
+  </si>
+  <si>
+    <t>b2_oop</t>
+  </si>
+  <si>
+    <t>b2_ip</t>
+  </si>
+  <si>
+    <t>b3_oop</t>
+  </si>
+  <si>
+    <t>b3_ip</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>wt1_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT1_TurbineState                      </t>
+  </si>
+  <si>
+    <t>wt2_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT2_TurbineState                      </t>
+  </si>
+  <si>
+    <t>wt3_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT3_TurbineState                      </t>
+  </si>
+  <si>
+    <t>avg_ws</t>
+  </si>
+  <si>
+    <t>avg_wd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -105,13 +534,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,9 +578,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,11 +900,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -473,6 +940,1826 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>127</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="2">
+        <v>88</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54">
+        <v>32</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="2">
+        <v>176</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63">
+        <v>32</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="2">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>10</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="2">
+        <v>48</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -482,11 +2769,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E303A492-24C2-4A5A-A2AD-6FA043D1D569}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -536,6 +2830,1679 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="4">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="4">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -545,11 +4512,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E611336-A0CB-48B0-9413-925C99B7B2DA}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -586,6 +4562,1225 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
